--- a/examples/SolverStudioExample.xlsx
+++ b/examples/SolverStudioExample.xlsx
@@ -12,6 +12,7 @@
   <definedNames>
     <definedName name="GenerationCurve" localSheetId="0">Hydro!$B$17:$C$19</definedName>
     <definedName name="GenerationCurve.dirn" localSheetId="0" hidden="1">"row"</definedName>
+    <definedName name="InitialBound" localSheetId="0">Hydro!$C$21</definedName>
     <definedName name="MarkovStates" localSheetId="0">Hydro!$D$7:$E$7</definedName>
     <definedName name="MarkovStates.dirn" localSheetId="0" hidden="1">"column"</definedName>
     <definedName name="Price" localSheetId="0">Hydro!$D$8:$E$10</definedName>
@@ -19,32 +20,39 @@
     <definedName name="Price.columnindex" localSheetId="0" hidden="1">Hydro!MarkovStates</definedName>
     <definedName name="Price.columnindex.dirn" localSheetId="0" hidden="1">"column"</definedName>
     <definedName name="Price.firstindex" localSheetId="0" hidden="1">"row"</definedName>
-    <definedName name="Price.rowindex" localSheetId="0" hidden="1">Hydro!Scenarios</definedName>
+    <definedName name="Price.rowindex" localSheetId="0" hidden="1">Hydro!Stages</definedName>
     <definedName name="Price.rowindex.dirn" localSheetId="0" hidden="1">"row"</definedName>
-    <definedName name="Profit" localSheetId="0">Hydro!$C$32:$C$36</definedName>
+    <definedName name="Profit" localSheetId="0">Hydro!$C$31:$C$35</definedName>
     <definedName name="Profit.badindex" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="Profit.rowindex" localSheetId="0" hidden="1">Hydro!$B$32:$B$36</definedName>
+    <definedName name="Profit.rowindex" localSheetId="0" hidden="1">Hydro!$B$31:$B$35</definedName>
     <definedName name="Profit.rowindex.dirn" localSheetId="0" hidden="1">"row"</definedName>
-    <definedName name="PurchaseCost" localSheetId="0">Hydro!#REF!</definedName>
-    <definedName name="ReservoirData" localSheetId="0">Hydro!$C$3:$E$4</definedName>
-    <definedName name="ReservoirData.badindex" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="ReservoirData.columnindex" localSheetId="0" hidden="1">Hydro!$C$2:$E$2</definedName>
-    <definedName name="ReservoirData.columnindex.dirn" localSheetId="0" hidden="1">"column"</definedName>
-    <definedName name="ReservoirData.firstindex" localSheetId="0" hidden="1">"row"</definedName>
-    <definedName name="ReservoirData.rowindex" localSheetId="0" hidden="1">Hydro!Reservoirs</definedName>
-    <definedName name="ReservoirData.rowindex.dirn" localSheetId="0" hidden="1">"row"</definedName>
+    <definedName name="Rainfall" localSheetId="0">Hydro!$I$8:$J$10</definedName>
+    <definedName name="Rainfall.badindex" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="Rainfall.columnindex" localSheetId="0" hidden="1">Hydro!MarkovStates</definedName>
+    <definedName name="Rainfall.columnindex.dirn" localSheetId="0" hidden="1">"column"</definedName>
+    <definedName name="Rainfall.firstindex" localSheetId="0" hidden="1">"row"</definedName>
+    <definedName name="Rainfall.rowindex" localSheetId="0" hidden="1">Hydro!Scenarios</definedName>
+    <definedName name="Rainfall.rowindex.dirn" localSheetId="0" hidden="1">"row"</definedName>
+    <definedName name="RD" localSheetId="0">Hydro!$C$3:$E$4</definedName>
+    <definedName name="RD.badindex" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="RD.columnindex" localSheetId="0" hidden="1">Hydro!$C$2:$E$2</definedName>
+    <definedName name="RD.columnindex.dirn" localSheetId="0" hidden="1">"column"</definedName>
+    <definedName name="RD.firstindex" localSheetId="0" hidden="1">"row"</definedName>
+    <definedName name="RD.rowindex" localSheetId="0" hidden="1">Hydro!Reservoirs</definedName>
+    <definedName name="RD.rowindex.dirn" localSheetId="0" hidden="1">"row"</definedName>
     <definedName name="Reservoirs" localSheetId="0">Hydro!$B$3:$B$4</definedName>
     <definedName name="Reservoirs.dirn" localSheetId="0" hidden="1">"row"</definedName>
-    <definedName name="Scenarios" localSheetId="0">Hydro!$C$8:$C$10</definedName>
+    <definedName name="Scenarios" localSheetId="0">Hydro!$H$8:$H$10</definedName>
     <definedName name="Scenarios.dirn" localSheetId="0" hidden="1">"row"</definedName>
-    <definedName name="Solution" localSheetId="0">Hydro!$C$27:$K$29</definedName>
+    <definedName name="Solution" localSheetId="0">Hydro!$C$26:$K$28</definedName>
     <definedName name="Solution.badindex" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="Solution.columnindex" localSheetId="0" hidden="1">Hydro!$C$24:$K$25</definedName>
+    <definedName name="Solution.columnindex" localSheetId="0" hidden="1">Hydro!$C$23:$K$24</definedName>
     <definedName name="Solution.columnindex.dirn" localSheetId="0" hidden="1">"column"</definedName>
     <definedName name="Solution.firstindex" localSheetId="0" hidden="1">"row"</definedName>
-    <definedName name="Solution.rowindex" localSheetId="0" hidden="1">Hydro!$B$27:$B$29</definedName>
+    <definedName name="Solution.rowindex" localSheetId="0" hidden="1">Hydro!$B$26:$B$28</definedName>
     <definedName name="Solution.rowindex.dirn" localSheetId="0" hidden="1">"row"</definedName>
-    <definedName name="Stages" localSheetId="0">Hydro!$C$22</definedName>
+    <definedName name="Stages" localSheetId="0">Hydro!$C$8:$C$10</definedName>
+    <definedName name="Stages.dirn" localSheetId="0" hidden="1">"row"</definedName>
     <definedName name="Transition" localSheetId="0">Hydro!$C$13:$D$14</definedName>
     <definedName name="Transition.badindex" localSheetId="0" hidden="1">1</definedName>
     <definedName name="Transition.columnindex" localSheetId="0" hidden="1">Hydro!MarkovStates</definedName>
@@ -52,14 +60,13 @@
     <definedName name="Transition.firstindex" localSheetId="0" hidden="1">"row"</definedName>
     <definedName name="Transition.rowindex" localSheetId="0" hidden="1">Hydro!MarkovStates</definedName>
     <definedName name="Transition.rowindex.dirn" localSheetId="0" hidden="1">"column"</definedName>
-    <definedName name="UpperBound" localSheetId="0">Hydro!$C$21</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Reservoirs</t>
   </si>
@@ -91,12 +98,6 @@
     <t>Initial Bound</t>
   </si>
   <si>
-    <t>Scenarios</t>
-  </si>
-  <si>
-    <t>Stages</t>
-  </si>
-  <si>
     <t>Week</t>
   </si>
   <si>
@@ -128,6 +129,15 @@
   </si>
   <si>
     <t>UQ</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Rainfall</t>
   </si>
 </sst>
 </file>
@@ -172,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -334,11 +344,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -352,6 +377,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -361,9 +434,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -373,49 +443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -494,12 +522,12 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Hydro!$D$32</c:f>
+                <c:f>Hydro!$D$31</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>144.15</c:v>
+                    <c:v>178.77500000000285</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -514,12 +542,12 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Hydro!$D$33</c:f>
+              <c:f>Hydro!$D$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>854.00000000000193</c:v>
+                  <c:v>811.49999999999864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -539,12 +567,12 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Hydro!$D$34</c:f>
+              <c:f>Hydro!$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>80.039999999998287</c:v>
+                  <c:v>81.532953642385252</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -568,12 +596,12 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Hydro!$D$36</c:f>
+                <c:f>Hydro!$D$35</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
                   <c:pt idx="0">
-                    <c:v>139.15000000000069</c:v>
+                    <c:v>151.77499999999421</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -597,12 +625,12 @@
           </c:errBars>
           <c:val>
             <c:numRef>
-              <c:f>Hydro!$D$35</c:f>
+              <c:f>Hydro!$D$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>68.260000000000929</c:v>
+                  <c:v>84.517046357618511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -618,11 +646,11 @@
         </c:dLbls>
         <c:gapWidth val="12"/>
         <c:overlap val="100"/>
-        <c:axId val="71513600"/>
-        <c:axId val="71979008"/>
+        <c:axId val="185582720"/>
+        <c:axId val="185587200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71513600"/>
+        <c:axId val="185582720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -631,7 +659,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71979008"/>
+        <c:crossAx val="185587200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -639,7 +667,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71979008"/>
+        <c:axId val="185587200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -669,7 +697,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71513600"/>
+        <c:crossAx val="185582720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -695,14 +723,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>674152</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>474127</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1015,92 +1043,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K36"/>
+  <dimension ref="B1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="2" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="6.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="5" customWidth="1"/>
+    <col min="9" max="11" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>200</v>
-      </c>
-      <c r="D3" s="15">
+        <v>100</v>
+      </c>
+      <c r="D3" s="9">
         <v>200</v>
       </c>
       <c r="E3" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="13">
+        <v>100</v>
+      </c>
+      <c r="D4" s="14">
         <v>200</v>
       </c>
-      <c r="D4" s="20">
-        <v>200</v>
-      </c>
-      <c r="E4" s="21">
+      <c r="E4" s="15">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D6" s="3" t="s">
+    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="8" t="s">
+      <c r="E6" s="20"/>
+      <c r="I6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="20"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="10">
         <v>1</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="15">
+      <c r="H7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1</v>
+      </c>
+      <c r="J7" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9">
         <v>1</v>
       </c>
       <c r="D8" s="1">
@@ -1109,34 +1151,66 @@
       <c r="E8" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="17">
+      <c r="G8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>20</v>
+      </c>
+      <c r="J8" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="22"/>
+      <c r="C9" s="11">
         <v>2</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="10">
         <v>2</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="20">
+      <c r="G9" s="22"/>
+      <c r="H9" s="11">
+        <v>2</v>
+      </c>
+      <c r="I9" s="10">
+        <v>15</v>
+      </c>
+      <c r="J9" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="23"/>
+      <c r="C10" s="14">
         <v>3</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="13">
         <v>3</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="15">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="8" t="s">
+      <c r="G10" s="23"/>
+      <c r="H10" s="14">
+        <v>3</v>
+      </c>
+      <c r="I10" s="13">
+        <v>30</v>
+      </c>
+      <c r="J10" s="15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1">
@@ -1146,7 +1220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>1</v>
       </c>
@@ -1157,19 +1231,19 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="19">
+    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="13">
         <v>2</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="13">
         <v>0.3</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="15">
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1182,304 +1256,298 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="23">
+      <c r="B18" s="17">
         <v>60</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="18">
         <v>65</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="19">
+      <c r="B19" s="13">
         <v>70</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="15">
         <v>70</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
+    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="27">
         <v>1200</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="26" t="s">
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="26">
+      <c r="D24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <f>$C$4</f>
+        <v>100</v>
+      </c>
+      <c r="D25" s="9">
+        <f t="shared" ref="D25:E25" si="0">$C$4</f>
+        <v>100</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F25" s="9">
+        <f>$C$3</f>
+        <v>100</v>
+      </c>
+      <c r="G25" s="9">
+        <f t="shared" ref="G25:H25" si="1">$C$3</f>
+        <v>100</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+      <c r="C26" s="10">
+        <v>65.000000000003382</v>
+      </c>
+      <c r="D26" s="11">
+        <v>89.999999999998124</v>
+      </c>
+      <c r="E26" s="12">
+        <v>94.999999999996504</v>
+      </c>
+      <c r="F26" s="11">
+        <v>59.999999999999993</v>
+      </c>
+      <c r="G26" s="11">
+        <v>75.000000000003467</v>
+      </c>
+      <c r="H26" s="11">
+        <v>79.999999999996945</v>
+      </c>
+      <c r="I26" s="10">
+        <v>108.50000000000372</v>
+      </c>
+      <c r="J26" s="11">
+        <v>134.99999999999903</v>
+      </c>
+      <c r="K26" s="12">
+        <v>137.49999999999824</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="10">
+        <f>B26+1</f>
+        <v>2</v>
+      </c>
+      <c r="C27" s="10">
+        <v>54.999999999998529</v>
+      </c>
+      <c r="D27" s="11">
+        <v>70.00000000000307</v>
+      </c>
+      <c r="E27" s="12">
+        <v>85.000000000002643</v>
+      </c>
+      <c r="F27" s="11">
+        <v>39.999999999996618</v>
+      </c>
+      <c r="G27" s="11">
+        <v>40.000000000000753</v>
+      </c>
+      <c r="H27" s="11">
+        <v>49.99999999999946</v>
+      </c>
+      <c r="I27" s="10">
+        <v>117.71523178807946</v>
+      </c>
+      <c r="J27" s="11">
+        <v>135</v>
+      </c>
+      <c r="K27" s="12">
+        <v>139.99999999999946</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="13">
+        <f>B27+1</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1" t="s">
+      <c r="C28" s="13">
+        <v>44.999999999999993</v>
+      </c>
+      <c r="D28" s="14">
+        <v>70.000000000000028</v>
+      </c>
+      <c r="E28" s="15">
+        <v>100.00000000000001</v>
+      </c>
+      <c r="F28" s="14">
+        <v>0</v>
+      </c>
+      <c r="G28" s="14">
+        <v>0</v>
+      </c>
+      <c r="H28" s="14">
+        <v>0</v>
+      </c>
+      <c r="I28" s="13">
+        <v>129.99999999999923</v>
+      </c>
+      <c r="J28" s="14">
+        <v>140</v>
+      </c>
+      <c r="K28" s="15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J25" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="1">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1">
-        <f>$C$4</f>
-        <v>200</v>
-      </c>
-      <c r="D26" s="15">
-        <f t="shared" ref="D26:E26" si="0">$C$4</f>
-        <v>200</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="F26" s="15">
-        <f>$C$3</f>
-        <v>200</v>
-      </c>
-      <c r="G26" s="15">
-        <f t="shared" ref="G26:H26" si="1">$C$3</f>
-        <v>200</v>
-      </c>
-      <c r="H26" s="15">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="16">
-        <v>1</v>
-      </c>
-      <c r="C27" s="16">
-        <v>189.99999999999974</v>
-      </c>
-      <c r="D27" s="17">
-        <v>199.99999999999997</v>
-      </c>
-      <c r="E27" s="18">
-        <v>199.99999999999997</v>
-      </c>
-      <c r="F27" s="17">
-        <v>130</v>
-      </c>
-      <c r="G27" s="17">
-        <v>130</v>
-      </c>
-      <c r="H27" s="17">
-        <v>140.0000000000002</v>
-      </c>
-      <c r="I27" s="16">
-        <v>135.00000000000159</v>
-      </c>
-      <c r="J27" s="17">
-        <v>140</v>
-      </c>
-      <c r="K27" s="18">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="16">
-        <f>B27+1</f>
-        <v>2</v>
-      </c>
-      <c r="C28" s="16">
-        <v>189.99999999999983</v>
-      </c>
-      <c r="D28" s="17">
-        <v>189.99999999999989</v>
-      </c>
-      <c r="E28" s="18">
-        <v>189.99999999999991</v>
-      </c>
-      <c r="F28" s="17">
-        <v>70.000000000000099</v>
-      </c>
-      <c r="G28" s="17">
-        <v>70.000000000000114</v>
-      </c>
-      <c r="H28" s="17">
-        <v>70.000000000000114</v>
-      </c>
-      <c r="I28" s="16">
-        <v>135.00000000000063</v>
-      </c>
-      <c r="J28" s="17">
-        <v>135.00000000000071</v>
-      </c>
-      <c r="K28" s="18">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="19">
-        <f>B28+1</f>
-        <v>3</v>
-      </c>
-      <c r="C29" s="19">
-        <v>189.99999999999994</v>
-      </c>
-      <c r="D29" s="20">
-        <v>189.99999999999997</v>
-      </c>
-      <c r="E29" s="21">
-        <v>189.99999999999997</v>
-      </c>
-      <c r="F29" s="20">
-        <v>0</v>
-      </c>
-      <c r="G29" s="20">
-        <v>0</v>
-      </c>
-      <c r="H29" s="20">
-        <v>0</v>
-      </c>
-      <c r="I29" s="19">
-        <v>140.00000000000011</v>
-      </c>
-      <c r="J29" s="20">
-        <v>140.00000000000011</v>
-      </c>
-      <c r="K29" s="21">
-        <v>140.00000000000011</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="9" t="s">
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
+      <c r="C31" s="2">
+        <v>637.49999999999579</v>
+      </c>
+      <c r="D31" s="6">
+        <f>C32-C31+($C$35-$C$31)/100</f>
+        <v>178.77500000000285</v>
+      </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="12">
+        <v>811.49999999999864</v>
+      </c>
+      <c r="D32" s="7">
+        <f>C32</f>
+        <v>811.49999999999864</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="12">
+        <v>888.25795364238388</v>
+      </c>
+      <c r="D33" s="7">
+        <f>C33-C32+($C$35-$C$31)/100</f>
+        <v>81.532953642385252</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="2">
-        <v>714.00000000000193</v>
-      </c>
-      <c r="D32" s="12">
-        <f>C33-C32+($C$36-$C$32)/100</f>
-        <v>144.15</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="18">
-        <v>854.00000000000193</v>
-      </c>
-      <c r="D33" s="13">
-        <f>C33</f>
-        <v>854.00000000000193</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="18">
-        <v>929.89000000000021</v>
-      </c>
-      <c r="D34" s="13">
-        <f>C34-C33+($C$36-$C$32)/100</f>
-        <v>80.039999999998287</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="18">
-        <v>994.00000000000114</v>
-      </c>
-      <c r="D35" s="13">
-        <f>C35-C34+($C$36-$C$32)/100</f>
-        <v>68.260000000000929</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="19" t="s">
+      <c r="C34" s="12">
+        <v>968.00000000000239</v>
+      </c>
+      <c r="D34" s="7">
+        <f>C34-C33+($C$35-$C$31)/100</f>
+        <v>84.517046357618511</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="21">
-        <v>1129.0000000000018</v>
-      </c>
-      <c r="D36" s="14">
-        <f>C36-C35+($C$36-$C$32)/100</f>
-        <v>139.15000000000069</v>
+      <c r="C35" s="15">
+        <v>1114.9999999999966</v>
+      </c>
+      <c r="D35" s="8">
+        <f>C35-C34+($C$35-$C$31)/100</f>
+        <v>151.77499999999421</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G8:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1503,15 +1571,16 @@
     end
 end
 # Initialise SDDP Model
-m = SDDPModel(stages=Int(Stages), markov_states=length(MarkovStates), scenarios=length(Scenarios), transition=T) do sp, stage, markov_state, scenario
+m = SDDPModel(
+    stages=length(Stages),
+    markov_states=length(MarkovStates),
+    scenarios=length(Scenarios),
+    transition=T,
+    value_to_go_bound=InitialBound
+    ) do sp, stage, markov_state
     # ------------------------------------------------------------------
     #   SDDP State Variables
-    # Level of upper reservoir
-    @defStateVar(sp, upper_reservoir &gt;= 0, upper_reservoir0==ReservoirData[("Upper","Initial")])
-    @addConstraint(sp, upper_reservoir &lt;= ReservoirData[("Upper","Max")])
-    # Level of lower reservoir
-    @defStateVar(sp, lower_reservoir &gt;= 0, lower_reservoir0==ReservoirData[("Lower","Initial")])
-    @addConstraint(sp, lower_reservoir &lt;= ReservoirData[("Lower","Max")])
+    @defStateVar(sp, 0 &lt;= reservoir[r=Reservoirs] &lt;= RD[(r,"Max")], reservoir0=RD[(r,"Initial")])
     # ------------------------------------------------------------------
     #   Additional variables
     # Quantity to flow through turbine of reservoir r
@@ -1521,64 +1590,68 @@
     # Total quantity of water
     @defVar(sp, generation_quantity &gt;= 0)
     # Proportion of levels to dispatch on
-    @defVar(sp, 0 &lt;= dispatch[reservoir=Reservoirs, level=1:length(GenerationCurve)] &lt;= 1)
+    @defVar(sp, 0 &lt;= dispatch[r=Reservoirs, level=1:length(GenerationCurve)] &lt;= 1)
+    # ------------------------------------------------------------------
+    # Stochasticity of Scenarios
+    # Rainfall inflow
+    @defVar(sp, rainfall &gt;= 0)
+    @addScenarioConstraint(sp, R=Float64[Rainfall[(s,markov_state)] for s in Scenarios], rainfall &lt;= R)
     # ------------------------------------------------------------------
     # Conservation constraints
-    @addConstraint(sp, upper_reservoir == upper_reservoir0 -
-        (outflow["Upper"] + spill["Upper"])
+    @addConstraint(sp, reservoir["Upper"] == reservoir0["Upper"] -
+        (outflow["Upper"] + spill["Upper"]) + rainfall
     )
-    @addConstraint(sp, lower_reservoir == lower_reservoir0 +
+    @addConstraint(sp, reservoir["Lower"] == reservoir0["Lower"] +
         (outflow["Upper"] + spill["Upper"]) -
         (outflow["Lower"] + spill["Lower"])
     )
     # ------------------------------------------------------------------
     # Reservoir constraints
-    for reservoir in Reservoirs
+    for r in Reservoirs
         # Flow out
-        @addConstraint(sp, outflow[reservoir] &gt;= sum{
-            GenerationCurve[level][1] * dispatch[reservoir, level],
+        @addConstraint(sp, outflow[r] &gt;= sum{
+            GenerationCurve[level][1] * dispatch[r, level],
             level=1:length(GenerationCurve)}
         )
         # Dispatch combination of levels
-        @addConstraint(sp, sum{dispatch[reservoir, level], level=1:length(GenerationCurve)} &lt;= 1)
+        @addConstraint(sp, sum{dispatch[r, level], level=1:length(GenerationCurve)} &lt;= 1)
     end
     # Total quantity generated
     @addConstraint(sp, generation_quantity &lt;= sum{
-        GenerationCurve[level][2] * dispatch[reservoir,level],
-        reservoir=Reservoirs, level=1:length(GenerationCurve)}
+        GenerationCurve[level][2] * dispatch[r,level],
+        r=Reservoirs, level=1:length(GenerationCurve)}
     )
     # ------------------------------------------------------------------
     #   Objective Function
-    if stage==Int(Stages)
-        @setObjective(sp, Max,
+    if stage==length(Stages)
+        @setStageProfit(sp,
             Price[stage, markov_state]*generation_quantity + 
-            lower_reservoir * ReservoirData[("Lower", "Final Value")] +
-            upper_reservoir * ReservoirData[("Upper", "Final Value")] 
-            )
+            sum{reservoir[r] * RD[(r, "Final Value")], r=Reservoirs}
+        )
     else
-        @defValueToGo(sp, value_to_go &lt;= UpperBound)
-        @setObjective(sp, Max, Price[stage, markov_state]*generation_quantity + value_to_go)
+        @setStageProfit(sp,
+            Price[stage, markov_state]*generation_quantity
+        )
     end
 end
-solve(m,                # Solve the model using the SDDP algorithm
-    forward_passes=1000,  # number of realisations in bound simulation
-    backward_passes=10,   # number of cutting iterations before convergence check
-    max_iters=50
+solve(
+    m,                       
+    simulation_passes=1000,  
+    log_frequency=10,        
+    maximum_iterations=100
 )
 results = simulate(m,   # Simulate the policy
     1000,               # number of monte carlo realisations
-    [:lower_reservoir,  # variables to return
-    :upper_reservoir,
-    :generation_quantity,
-    :spill]
+    [:reservoir, :generation_quantity]
     )
-V = [(:lower_reservoir, "Lower"), (:upper_reservoir, "Upper"), (:generation_quantity, "Generation")]
 Q = [(0.05, "L"), (0.5, "M"), (0.95, "U")]
 for t=1:3
-    for (v, sv) in V
-        for (q, sq) in Q
-            Solution[(t, sv, sq)] = quantile(results[v][t], q)
-        end
+    for (q, sq) in Q
+        Solution[(t, "Upper", sq)] = quantile([r["Upper"] for r in results[:reservoir][t]], q)
+        Solution[(t, "Lower", sq)] = quantile([r["Lower"] for r in results[:reservoir][t]], q)
+    end
+    for (q, sq) in Q
+        Solution[(t, "Generation", sq)] = quantile(results[:generation_quantity][t], q)
     end
 end
 for (sq, q) in [("Max", 1.), ("UQ", 0.75), ("Med", 0.5), ("LQ", 0.25), ("Min", 0.)]
@@ -1592,7 +1665,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD9B435-2753-45F5-B0E6-3E840C91093B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{545B98F2-813B-404E-9DF8-1C293D6E0F86}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://opensolver.org"/>
